--- a/SDG Financing Simplified model (Egypt)/v7/output/modeloutput_bwa.xlsx
+++ b/SDG Financing Simplified model (Egypt)/v7/output/modeloutput_bwa.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView yWindow="2085" windowWidth="17250" windowHeight="9945"/>
+    <workbookView windowWidth="17030" windowHeight="10730"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -811,6 +811,1072 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Output per Capita</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$AD$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>6.19766391512009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.18906142445902</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.95104531907191</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.5411270367753</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.01440010003624</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.35553728209006</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.65100322628913</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.88930652963247</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.1011955718121</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.2752848051818</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.4169444184528</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10.5422707934194</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10.6356218138045</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10.7005889489019</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10.7436674434521</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10.7601820630551</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10.7651360626962</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10.7508893600097</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10.7152040913846</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10.6717678619323</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10.6302073997865</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10.591879225697</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>10.5469123513707</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>10.4948843584428</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>10.4464160930393</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10.4033110063432</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10.366169614203</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10.332922731063</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>10.3031485717581</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Consumption per Capita</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$AD$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>1.26028106839748</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.89596595646848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.33435785235601</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.35536445419467</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.38058428876589</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.4106099938022</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.44632389941555</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.48789335359495</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.53612940693153</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.59377209120667</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.66181686673023</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.74126522383332</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.83324786608296</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.93915252407114</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.06221965882223</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.20429641193768</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.36757744506975</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.55447665534835</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.76767819606113</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.00931332832887</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.28275587860316</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.59202383932015</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.94118079229692</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.3348183112415</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.51283787434726</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.5287618387973</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.54488859806937</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.55874611816081</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.57040740060159</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="187240386"/>
+        <c:axId val="533133178"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="187240386"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="533133178"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="533133178"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="187240386"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:externalData r:id="rId1">
+    <c:autoUpdate val="0"/>
+  </c:externalData>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>565785</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>145415</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="2152650" y="2736850"/>
+        <a:ext cx="4585335" cy="2742565"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1072,7 +2138,7 @@
   <dimension ref="A1:AD12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2145,5 +3211,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>